--- a/Code/Results/Cases/Case_2_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_239/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.76650226412344</v>
+        <v>10.06754901453273</v>
       </c>
       <c r="C2">
-        <v>11.17935278014231</v>
+        <v>8.719607370883393</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.75718766387253</v>
+        <v>11.36490160194159</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.132158751469657</v>
+        <v>3.709809526601005</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.1742361185788</v>
+        <v>34.50677836509271</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.1472487780358</v>
+        <v>11.66667725932309</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.34754714713543</v>
+        <v>15.13666493759706</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.990673120518183</v>
+        <v>9.968447506283031</v>
       </c>
       <c r="C3">
-        <v>10.47480912857319</v>
+        <v>8.487629773458554</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.88120732726452</v>
+        <v>11.11966213943457</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.141939693500754</v>
+        <v>3.713001074596066</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.65654482444467</v>
+        <v>34.01730367309228</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.35908100098381</v>
+        <v>11.58148529128995</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.34312458107875</v>
+        <v>15.01758133747354</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.490553973542683</v>
+        <v>9.911542330116175</v>
       </c>
       <c r="C4">
-        <v>10.02740656547437</v>
+        <v>8.344155149006427</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.32621893786089</v>
+        <v>10.96990660979174</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.148067841466411</v>
+        <v>3.715059317752173</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.70900825704956</v>
+        <v>33.71461300459328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.851057558563749</v>
+        <v>11.53274615658138</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.78518931644158</v>
+        <v>14.948503449272</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.28067391789504</v>
+        <v>9.889375733596411</v>
       </c>
       <c r="C5">
-        <v>9.841434124850903</v>
+        <v>8.285516874005507</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.09584435665342</v>
+        <v>10.90917839326414</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.150598357059659</v>
+        <v>3.71592296312655</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.31919340502304</v>
+        <v>33.59081601622951</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.637872945498009</v>
+        <v>11.51380205592976</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.59395042871</v>
+        <v>14.9213957231947</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.245453520313465</v>
+        <v>9.885757616459049</v>
       </c>
       <c r="C6">
-        <v>9.810335812887971</v>
+        <v>8.275772405198785</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.05734023771979</v>
+        <v>10.8991152390415</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.15102062227708</v>
+        <v>3.716067877167042</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.25425079812434</v>
+        <v>33.57023527878219</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.602098765468517</v>
+        <v>11.51071236602853</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.56209854619181</v>
+        <v>14.91695816913091</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.487748197703983</v>
+        <v>9.911239203503689</v>
       </c>
       <c r="C7">
-        <v>10.02491314081722</v>
+        <v>8.343364903837012</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.32312891659467</v>
+        <v>10.96908627780457</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.148101831216553</v>
+        <v>3.715070864252758</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.70376562674473</v>
+        <v>33.71294512653242</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.848207555346107</v>
+        <v>11.53248692987003</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.78261683536389</v>
+        <v>14.94813361264761</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.5038627242943</v>
+        <v>10.03257973417685</v>
       </c>
       <c r="C8">
-        <v>10.93953121577536</v>
+        <v>8.639890056792892</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.45874732345257</v>
+        <v>11.28022681322545</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.13550728715872</v>
+        <v>3.710889561652401</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.65432282647729</v>
+        <v>34.33850949594751</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.88042234853496</v>
+        <v>11.63657486400214</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.00737490829732</v>
+        <v>15.09478277425417</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.3129973846308</v>
+        <v>10.30033527830636</v>
       </c>
       <c r="C9">
-        <v>12.61437221338051</v>
+        <v>9.209387111467866</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.75721004008874</v>
+        <v>11.89296554344761</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.111662185518547</v>
+        <v>3.703468160889545</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>40.34698262232936</v>
+        <v>35.54413985252182</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.71858597398304</v>
+        <v>11.86804562903271</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.35352729174911</v>
+        <v>15.41316874998257</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.53797047917121</v>
+        <v>10.5131000302429</v>
       </c>
       <c r="C10">
-        <v>13.82897757163411</v>
+        <v>9.615830362476437</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.35133603012464</v>
+        <v>12.33964868823459</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.094476327838825</v>
+        <v>3.698483870657891</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.97318906296035</v>
+        <v>36.41176143162336</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.96345094581228</v>
+        <v>12.05338264713928</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.94596806958632</v>
+        <v>15.66407508942884</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.07451649115924</v>
+        <v>10.61289404178912</v>
       </c>
       <c r="C11">
-        <v>14.3750973316259</v>
+        <v>9.797256347496397</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.05142841032306</v>
+        <v>12.54109368443806</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.086682570834355</v>
+        <v>3.696316740015361</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.14915709160748</v>
+        <v>36.80143817841975</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.50876892862797</v>
+        <v>12.14068889164146</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.64445092774618</v>
+        <v>15.78149616883085</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.27489322540014</v>
+        <v>10.65107419823271</v>
       </c>
       <c r="C12">
-        <v>14.579280759644</v>
+        <v>9.865393617183072</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.31318020232041</v>
+        <v>12.61704575545672</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.083730180646636</v>
+        <v>3.695510418602856</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.59187320115637</v>
+        <v>36.94819057604216</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.71243114584532</v>
+        <v>12.17415148443193</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.90546050077993</v>
+        <v>15.82639636839198</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.23186010685835</v>
+        <v>10.64283473010707</v>
       </c>
       <c r="C13">
-        <v>14.53541985779312</v>
+        <v>9.850745151693383</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.25695231522543</v>
+        <v>12.60070403014583</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.0843661566971</v>
+        <v>3.695683438739993</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.49663960858998</v>
+        <v>36.91662222696577</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.66869198895822</v>
+        <v>12.16692732591936</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.84939857445976</v>
+        <v>15.81670753404353</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.09105667899971</v>
+        <v>10.61602756504844</v>
       </c>
       <c r="C14">
-        <v>14.39194710936618</v>
+        <v>9.80287372063945</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.07302864883349</v>
+        <v>12.54734936956994</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.086439725357494</v>
+        <v>3.696250116918183</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.18563087095178</v>
+        <v>36.81352831649984</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.52558011926458</v>
+        <v>12.14343399979206</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.6659928374822</v>
+        <v>15.78518162190055</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.00445120208897</v>
+        <v>10.59965698324337</v>
       </c>
       <c r="C15">
-        <v>14.30372997018187</v>
+        <v>9.773475662402221</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.95994070489427</v>
+        <v>12.5146227707788</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.087709562695177</v>
+        <v>3.696599086349656</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.99479480289651</v>
+        <v>36.75027226444022</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.43755604853811</v>
+        <v>12.12909508398235</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.55320447533386</v>
+        <v>15.7659266906741</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.50250391278057</v>
+        <v>10.50663517250889</v>
       </c>
       <c r="C16">
-        <v>13.7929111987048</v>
+        <v>9.603898187625946</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.30509919062131</v>
+        <v>12.32644166941583</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.094985779718078</v>
+        <v>3.698627507149665</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.89596657305469</v>
+        <v>36.38618663499878</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.92740582605228</v>
+        <v>12.0477347823554</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.89981851946285</v>
+        <v>15.65646428403374</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.18939217247013</v>
+        <v>10.45030956471284</v>
       </c>
       <c r="C17">
-        <v>13.47469034274941</v>
+        <v>9.498930946809855</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.89711834525851</v>
+        <v>12.21049210828746</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.09945264354422</v>
+        <v>3.699897488237853</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>42.21712228199445</v>
+        <v>36.16148445172671</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.60919323957278</v>
+        <v>11.99856960826214</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.49250719939822</v>
+        <v>15.59012756032786</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.00733860182701</v>
+        <v>10.41819807892643</v>
       </c>
       <c r="C18">
-        <v>13.28982453832334</v>
+        <v>9.438233824787282</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.6600809776864</v>
+        <v>12.14364035767374</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.102024444709963</v>
+        <v>3.700637389044169</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>41.82489822379837</v>
+        <v>36.03177543540056</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.4241794797772</v>
+        <v>11.97057485059966</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.25577639658319</v>
+        <v>15.5522836484946</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.94535674222103</v>
+        <v>10.40737599044783</v>
       </c>
       <c r="C19">
-        <v>13.22691265106829</v>
+        <v>9.417629503137649</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.57940875147185</v>
+        <v>12.12098038956472</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.102895784431357</v>
+        <v>3.700889531087513</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>41.69179215689788</v>
+        <v>35.98778088506106</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.36119073349835</v>
+        <v>11.96114591627744</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.17519479665314</v>
+        <v>15.53952490560793</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.22292509609539</v>
+        <v>10.45627627504609</v>
       </c>
       <c r="C20">
-        <v>13.50875415902552</v>
+        <v>9.510138789254647</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.94079296642019</v>
+        <v>12.22285234638704</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.098976902370192</v>
+        <v>3.699761320116161</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>42.28956925106135</v>
+        <v>36.18545329706559</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.64327185713059</v>
+        <v>12.00377416671957</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.53611875236539</v>
+        <v>15.59715727109626</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.13248859766426</v>
+        <v>10.62389122195313</v>
       </c>
       <c r="C21">
-        <v>14.43415821353718</v>
+        <v>9.816950549020797</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.12714048252262</v>
+        <v>12.56303050669891</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.085830735981785</v>
+        <v>3.696083281781536</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.2770510587255</v>
+        <v>36.8438321710227</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.56769103592053</v>
+        <v>12.1503238952346</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.71995624787346</v>
+        <v>15.79443002579377</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.71070755087729</v>
+        <v>10.73569278786588</v>
       </c>
       <c r="C22">
-        <v>15.02378541540169</v>
+        <v>10.01415086537934</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.88305341291511</v>
+        <v>12.78339554880726</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.077230201904334</v>
+        <v>3.693762919635391</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.560943089707</v>
+        <v>37.26936178864637</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.15540978127079</v>
+        <v>12.2484295499066</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.47344805943591</v>
+        <v>15.92587948896553</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.40352327551117</v>
+        <v>10.67582974538388</v>
       </c>
       <c r="C23">
-        <v>14.71041806479167</v>
+        <v>9.909225447822264</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.48129590517478</v>
+        <v>12.66598673827289</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>2.081822930234341</v>
+        <v>3.694993735222546</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.87703167886196</v>
+        <v>37.04271284406391</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.84317307458259</v>
+        <v>12.1958656002232</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.07305859042814</v>
+        <v>15.85550410389109</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.20777123298341</v>
+        <v>10.45357787841398</v>
       </c>
       <c r="C24">
-        <v>13.49335988887023</v>
+        <v>9.505072808967153</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.92105542488558</v>
+        <v>12.21726487108054</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.099191972965688</v>
+        <v>3.699822851278337</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>42.25682204818364</v>
+        <v>36.17461860965795</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.62787137215492</v>
+        <v>12.00142033962717</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.51640996718334</v>
+        <v>15.59397822045923</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.84247112876103</v>
+        <v>10.22492249294969</v>
       </c>
       <c r="C25">
-        <v>12.17401944738998</v>
+        <v>9.05710799384266</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.14641918196583</v>
+        <v>11.727462979975</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>2.118039677676045</v>
+        <v>3.705393180261207</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.36306127864783</v>
+        <v>35.22079673885643</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.24046866005024</v>
+        <v>11.80263726289313</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.74267486061509</v>
+        <v>15.32391772310549</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_239/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.06754901453273</v>
+        <v>10.76650226412336</v>
       </c>
       <c r="C2">
-        <v>8.719607370883393</v>
+        <v>11.17935278014226</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.36490160194159</v>
+        <v>13.75718766387254</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.709809526601005</v>
+        <v>2.132158751469791</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.50677836509271</v>
+        <v>37.17423611857874</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.66667725932309</v>
+        <v>11.14724877803574</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.13666493759706</v>
+        <v>14.34754714713537</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.968447506283031</v>
+        <v>9.990673120518158</v>
       </c>
       <c r="C3">
-        <v>8.487629773458554</v>
+        <v>10.4748091285731</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.11966213943457</v>
+        <v>12.88120732726447</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.713001074596066</v>
+        <v>2.141939693500889</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.01730367309228</v>
+        <v>35.65654482444435</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.58148529128995</v>
+        <v>10.35908100098366</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.01758133747354</v>
+        <v>13.34312458107864</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.911542330116175</v>
+        <v>9.490553973542729</v>
       </c>
       <c r="C4">
-        <v>8.344155149006427</v>
+        <v>10.02740656547445</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.96990660979174</v>
+        <v>12.32621893786089</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.715059317752173</v>
+        <v>2.14806784146614</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.71461300459328</v>
+        <v>34.7090082570498</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.53274615658138</v>
+        <v>9.851057558563797</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.948503449272</v>
+        <v>12.78518931644157</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.889375733596411</v>
+        <v>9.280673917894989</v>
       </c>
       <c r="C5">
-        <v>8.285516874005507</v>
+        <v>9.841434124850897</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.90917839326414</v>
+        <v>12.09584435665342</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.71592296312655</v>
+        <v>2.150598357059916</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.59081601622951</v>
+        <v>34.31919340502307</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.51380205592976</v>
+        <v>9.637872945498021</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.9213957231947</v>
+        <v>12.59395042870998</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.885757616459049</v>
+        <v>9.245453520313514</v>
       </c>
       <c r="C6">
-        <v>8.275772405198785</v>
+        <v>9.81033581288794</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.8991152390415</v>
+        <v>12.05734023771979</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.716067877167042</v>
+        <v>2.151020622276955</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.57023527878219</v>
+        <v>34.25425079812447</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.51071236602853</v>
+        <v>9.602098765468487</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.91695816913091</v>
+        <v>12.56209854619179</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.911239203503689</v>
+        <v>9.487748197704001</v>
       </c>
       <c r="C7">
-        <v>8.343364903837012</v>
+        <v>10.02491314081724</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.96908627780457</v>
+        <v>12.32312891659469</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.715070864252758</v>
+        <v>2.148101831216413</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.71294512653242</v>
+        <v>34.70376562674507</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.53248692987003</v>
+        <v>9.848207555346159</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.94813361264761</v>
+        <v>12.7826168353639</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.03257973417685</v>
+        <v>10.50386272429439</v>
       </c>
       <c r="C8">
-        <v>8.639890056792892</v>
+        <v>10.93953121577535</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.28022681322545</v>
+        <v>13.45874732345257</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.710889561652401</v>
+        <v>2.135507287158718</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.33850949594751</v>
+        <v>36.65432282647723</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.63657486400214</v>
+        <v>10.88042234853497</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.09478277425417</v>
+        <v>14.00737490829731</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.30033527830636</v>
+        <v>12.31299738463081</v>
       </c>
       <c r="C9">
-        <v>9.209387111467866</v>
+        <v>12.61437221338057</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.89296554344761</v>
+        <v>15.75721004008869</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.703468160889545</v>
+        <v>2.111662185518672</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.54413985252182</v>
+        <v>40.34698262232973</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.86804562903271</v>
+        <v>12.71858597398315</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.41316874998257</v>
+        <v>16.35352729174912</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.5131000302429</v>
+        <v>13.53797047917124</v>
       </c>
       <c r="C10">
-        <v>9.615830362476437</v>
+        <v>13.82897757163401</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.33964868823459</v>
+        <v>17.35133603012459</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.698483870657891</v>
+        <v>2.094476327838683</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>36.41176143162336</v>
+        <v>42.97318906296024</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.05338264713928</v>
+        <v>13.96345094581228</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.66407508942884</v>
+        <v>17.94596806958628</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.61289404178912</v>
+        <v>14.07451649115919</v>
       </c>
       <c r="C11">
-        <v>9.797256347496397</v>
+        <v>14.37509733162583</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.54109368443806</v>
+        <v>18.05142841032297</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.696316740015361</v>
+        <v>2.086682570834373</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>36.80143817841975</v>
+        <v>44.14915709160774</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.14068889164146</v>
+        <v>14.50876892862792</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.78149616883085</v>
+        <v>18.64445092774611</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.65107419823271</v>
+        <v>14.27489322540011</v>
       </c>
       <c r="C12">
-        <v>9.865393617183072</v>
+        <v>14.5792807596442</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.61704575545672</v>
+        <v>18.31318020232033</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.695510418602856</v>
+        <v>2.083730180646632</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>36.94819057604216</v>
+        <v>44.59187320115657</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.17415148443193</v>
+        <v>14.71243114584539</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.82639636839198</v>
+        <v>18.90546050077994</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.64283473010707</v>
+        <v>14.23186010685833</v>
       </c>
       <c r="C13">
-        <v>9.850745151693383</v>
+        <v>14.53541985779314</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.60070403014583</v>
+        <v>18.25695231522545</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.695683438739993</v>
+        <v>2.084366156697093</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>36.91662222696577</v>
+        <v>44.49663960859009</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.16692732591936</v>
+        <v>14.66869198895819</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.81670753404353</v>
+        <v>18.84939857445973</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.61602756504844</v>
+        <v>14.09105667899984</v>
       </c>
       <c r="C14">
-        <v>9.80287372063945</v>
+        <v>14.39194710936622</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.54734936956994</v>
+        <v>18.07302864883344</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.696250116918183</v>
+        <v>2.086439725357636</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>36.81352831649984</v>
+        <v>44.1856308709521</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.14343399979206</v>
+        <v>14.52558011926463</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.78518162190055</v>
+        <v>18.66599283748222</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.59965698324337</v>
+        <v>14.00445120208897</v>
       </c>
       <c r="C15">
-        <v>9.773475662402221</v>
+        <v>14.30372997018204</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.5146227707788</v>
+        <v>17.95994070489428</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.696599086349656</v>
+        <v>2.08770956269517</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>36.75027226444022</v>
+        <v>43.99479480289678</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.12909508398235</v>
+        <v>14.43755604853818</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.7659266906741</v>
+        <v>18.55320447533391</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.50663517250889</v>
+        <v>13.50250391278058</v>
       </c>
       <c r="C16">
-        <v>9.603898187625946</v>
+        <v>13.79291119870489</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.32644166941583</v>
+        <v>17.30509919062132</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.698627507149665</v>
+        <v>2.094985779717947</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>36.38618663499878</v>
+        <v>42.89596657305479</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.0477347823554</v>
+        <v>13.9274058260523</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.65646428403374</v>
+        <v>17.8998185194629</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.45030956471284</v>
+        <v>13.18939217247</v>
       </c>
       <c r="C17">
-        <v>9.498930946809855</v>
+        <v>13.47469034274948</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.21049210828746</v>
+        <v>16.89711834525848</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.699897488237853</v>
+        <v>2.099452643544092</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.16148445172671</v>
+        <v>42.21712228199483</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.99856960826214</v>
+        <v>13.60919323957271</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.59012756032786</v>
+        <v>17.49250719939813</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.41819807892643</v>
+        <v>13.00733860182694</v>
       </c>
       <c r="C18">
-        <v>9.438233824787282</v>
+        <v>13.28982453832336</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.14364035767374</v>
+        <v>16.66008097768643</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.700637389044169</v>
+        <v>2.102024444709966</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.03177543540056</v>
+        <v>41.82489822379838</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.97057485059966</v>
+        <v>13.42417947977717</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.5522836484946</v>
+        <v>17.2557763965832</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.40737599044783</v>
+        <v>12.94535674222102</v>
       </c>
       <c r="C19">
-        <v>9.417629503137649</v>
+        <v>13.22691265106821</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.12098038956472</v>
+        <v>16.57940875147183</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.700889531087513</v>
+        <v>2.102895784431094</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.98778088506106</v>
+        <v>41.69179215689775</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.96114591627744</v>
+        <v>13.36119073349833</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.53952490560793</v>
+        <v>17.17519479665311</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.45627627504609</v>
+        <v>13.22292509609535</v>
       </c>
       <c r="C20">
-        <v>9.510138789254647</v>
+        <v>13.5087541590255</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.22285234638704</v>
+        <v>16.94079296642017</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.699761320116161</v>
+        <v>2.09897690237032</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>36.18545329706559</v>
+        <v>42.28956925106124</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.00377416671957</v>
+        <v>13.64327185713056</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.59715727109626</v>
+        <v>17.53611875236534</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.62389122195313</v>
+        <v>14.13248859766425</v>
       </c>
       <c r="C21">
-        <v>9.816950549020797</v>
+        <v>14.43415821353728</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.56303050669891</v>
+        <v>18.1271404825226</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.696083281781536</v>
+        <v>2.085830735981782</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>36.8438321710227</v>
+        <v>44.27705105872547</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.1503238952346</v>
+        <v>14.56769103592058</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.79443002579377</v>
+        <v>18.7199562478735</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.73569278786588</v>
+        <v>14.71070755087729</v>
       </c>
       <c r="C22">
-        <v>10.01415086537934</v>
+        <v>15.02378541540181</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.78339554880726</v>
+        <v>18.88305341291513</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.693762919635391</v>
+        <v>2.077230201904203</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.26936178864637</v>
+        <v>45.56094308970705</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.2484295499066</v>
+        <v>15.15540978127083</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.92587948896553</v>
+        <v>19.47344805943596</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.67582974538388</v>
+        <v>14.40352327551117</v>
       </c>
       <c r="C23">
-        <v>9.909225447822264</v>
+        <v>14.71041806479172</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.66598673827289</v>
+        <v>18.48129590517484</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.694993735222546</v>
+        <v>2.081822930234217</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.04271284406391</v>
+        <v>44.87703167886238</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.1958656002232</v>
+        <v>14.84317307458257</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.85550410389109</v>
+        <v>19.07305859042811</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.45357787841398</v>
+        <v>13.20777123298344</v>
       </c>
       <c r="C24">
-        <v>9.505072808967153</v>
+        <v>13.49335988887029</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.21726487108054</v>
+        <v>16.92105542488558</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.699822851278337</v>
+        <v>2.099191972965434</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36.17461860965795</v>
+        <v>42.25682204818376</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.00142033962717</v>
+        <v>13.62787137215496</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.59397822045923</v>
+        <v>17.51640996718339</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.22492249294969</v>
+        <v>11.84247112876088</v>
       </c>
       <c r="C25">
-        <v>9.05710799384266</v>
+        <v>12.17401944738993</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.727462979975</v>
+        <v>15.1464191819658</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.705393180261207</v>
+        <v>2.11803967767579</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.22079673885643</v>
+        <v>39.36306127864795</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.80263726289313</v>
+        <v>12.24046866005012</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.32391772310549</v>
+        <v>15.74267486061501</v>
       </c>
       <c r="N25">
         <v>0</v>
